--- a/Attendance Tracker.xlsx
+++ b/Attendance Tracker.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timscherman/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timscherman/Documents/Coding Temple/Excel Work/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39D311FF-8738-B140-A704-EE123CD13D37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391DD315-AA25-C241-ADF2-5CE4651DCAD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29040" yWindow="500" windowWidth="38160" windowHeight="22680" xr2:uid="{F27D2ADF-D3F4-924A-8465-F04D796FA4EF}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="28160" windowHeight="16440" xr2:uid="{F27D2ADF-D3F4-924A-8465-F04D796FA4EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="56">
   <si>
     <t>Lloyd</t>
   </si>
@@ -183,6 +183,27 @@
   </si>
   <si>
     <t>✕</t>
+  </si>
+  <si>
+    <t>Total In-class</t>
+  </si>
+  <si>
+    <t>Total Missed</t>
+  </si>
+  <si>
+    <t>Total Tardy</t>
+  </si>
+  <si>
+    <t>Total In-Class</t>
+  </si>
+  <si>
+    <t>In-class %</t>
+  </si>
+  <si>
+    <t>Missed %</t>
+  </si>
+  <si>
+    <t>Tardy %</t>
   </si>
 </sst>
 </file>
@@ -190,9 +211,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -223,6 +244,13 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -264,17 +292,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -286,11 +315,92 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -620,24 +730,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BCB696-63CB-4647-A5D0-54F2F401E37D}">
-  <dimension ref="B2:AI28"/>
+  <dimension ref="B2:AO38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AO38" sqref="AO38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="1" customWidth="1"/>
+    <col min="36" max="36" width="1" customWidth="1"/>
+    <col min="37" max="37" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="1.83203125" customWidth="1"/>
+    <col min="41" max="41" width="65.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:35" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:41" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
@@ -645,7 +762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>43</v>
       </c>
@@ -653,7 +770,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>44</v>
       </c>
@@ -661,7 +778,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
@@ -761,8 +878,17 @@
       <c r="AI7" s="6">
         <v>45322</v>
       </c>
+      <c r="AK7" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>50</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>51</v>
+      </c>
     </row>
-    <row r="8" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:41" ht="5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="E8" s="1"/>
@@ -797,7 +923,7 @@
       <c r="AH8" s="1"/>
       <c r="AI8" s="1"/>
     </row>
-    <row r="9" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>0</v>
       </c>
@@ -822,8 +948,8 @@
       <c r="J9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K9" s="7" t="s">
-        <v>47</v>
+      <c r="K9" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>47</v>
@@ -831,14 +957,14 @@
       <c r="M9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N9" s="7" t="s">
-        <v>47</v>
+      <c r="N9" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>47</v>
+      <c r="P9" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>47</v>
@@ -861,8 +987,8 @@
       <c r="W9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="X9" s="7" t="s">
-        <v>47</v>
+      <c r="X9" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="Y9" s="7" t="s">
         <v>47</v>
@@ -897,8 +1023,24 @@
       <c r="AI9" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK9" s="10">
+        <f>COUNTIF(E9:AI9, "✓")</f>
+        <v>27</v>
+      </c>
+      <c r="AL9" s="10">
+        <f>COUNTIF(E9:AI9, "✕")</f>
+        <v>3</v>
+      </c>
+      <c r="AM9" s="10">
+        <f>COUNTIF(E9:AI9, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="AO9" t="str">
+        <f>C9&amp;" "&amp;B9&amp;" attended "&amp;AK9&amp;", missed "&amp;AL9&amp;", and was late to "&amp;AM9&amp;" class(s) in January."</f>
+        <v>Hadley Lloyd attended 27, missed 3, and was late to 1 class(s) in January.</v>
+      </c>
     </row>
-    <row r="10" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
@@ -998,8 +1140,24 @@
       <c r="AI10" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK10" s="10">
+        <f t="shared" ref="AK10:AK28" si="0">COUNTIF(E10:AI10, "✓")</f>
+        <v>29</v>
+      </c>
+      <c r="AL10" s="10">
+        <f t="shared" ref="AL10:AL28" si="1">COUNTIF(E10:AI10, "✕")</f>
+        <v>1</v>
+      </c>
+      <c r="AM10" s="10">
+        <f t="shared" ref="AM10:AM28" si="2">COUNTIF(E10:AI10, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="AO10" t="str">
+        <f t="shared" ref="AO10:AO28" si="3">C10&amp;" "&amp;B10&amp;" attended "&amp;AK10&amp;", missed "&amp;AL10&amp;", and was late to "&amp;AM10&amp;" class(s) in January."</f>
+        <v>Zaire Barr attended 29, missed 1, and was late to 1 class(s) in January.</v>
+      </c>
     </row>
-    <row r="11" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B11" s="4" t="s">
         <v>4</v>
       </c>
@@ -1051,8 +1209,8 @@
       <c r="S11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T11" s="7" t="s">
-        <v>47</v>
+      <c r="T11" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="U11" s="9" t="s">
         <v>48</v>
@@ -1099,8 +1257,24 @@
       <c r="AI11" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK11" s="10">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AL11" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AM11" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AO11" t="str">
+        <f t="shared" si="3"/>
+        <v>Noemi Ahmed attended 24, missed 6, and was late to 1 class(s) in January.</v>
+      </c>
     </row>
-    <row r="12" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1200,8 +1374,24 @@
       <c r="AI12" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK12" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AL12" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM12" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AO12" t="str">
+        <f t="shared" si="3"/>
+        <v>Harry Sweeney attended 28, missed 2, and was late to 1 class(s) in January.</v>
+      </c>
     </row>
-    <row r="13" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1289,8 +1479,8 @@
       <c r="AE13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AF13" s="7" t="s">
-        <v>47</v>
+      <c r="AF13" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="AG13" s="7" t="s">
         <v>47</v>
@@ -1301,8 +1491,24 @@
       <c r="AI13" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK13" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AL13" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM13" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO13" t="str">
+        <f t="shared" si="3"/>
+        <v>Yara Vang attended 30, missed 1, and was late to 0 class(s) in January.</v>
+      </c>
     </row>
-    <row r="14" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
         <v>10</v>
       </c>
@@ -1318,17 +1524,17 @@
       <c r="G14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>47</v>
+      <c r="H14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>47</v>
+      <c r="K14" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>47</v>
@@ -1348,20 +1554,20 @@
       <c r="Q14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R14" s="7" t="s">
-        <v>47</v>
+      <c r="R14" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="S14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="T14" s="7" t="s">
-        <v>47</v>
+      <c r="T14" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="U14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V14" s="7" t="s">
-        <v>47</v>
+      <c r="V14" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="W14" s="7" t="s">
         <v>47</v>
@@ -1402,8 +1608,24 @@
       <c r="AI14" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="AK14" s="10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AL14" s="10">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AM14" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AO14" t="str">
+        <f t="shared" si="3"/>
+        <v>Jimmy Wallace attended 21, missed 6, and was late to 4 class(s) in January.</v>
+      </c>
     </row>
-    <row r="15" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
@@ -1503,8 +1725,24 @@
       <c r="AI15" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK15" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AL15" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM15" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO15" t="str">
+        <f t="shared" si="3"/>
+        <v>Arianna McLean attended 30, missed 1, and was late to 0 class(s) in January.</v>
+      </c>
     </row>
-    <row r="16" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
@@ -1553,8 +1791,8 @@
       <c r="R16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="S16" s="7" t="s">
-        <v>47</v>
+      <c r="S16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="T16" s="7" t="s">
         <v>47</v>
@@ -1562,8 +1800,8 @@
       <c r="U16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="V16" s="7" t="s">
-        <v>47</v>
+      <c r="V16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="W16" s="7" t="s">
         <v>47</v>
@@ -1595,8 +1833,8 @@
       <c r="AF16" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AG16" s="7" t="s">
-        <v>47</v>
+      <c r="AG16" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="AH16" s="7" t="s">
         <v>47</v>
@@ -1604,8 +1842,24 @@
       <c r="AI16" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK16" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AL16" s="10">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AM16" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO16" t="str">
+        <f t="shared" si="3"/>
+        <v>Crosby Archer attended 26, missed 5, and was late to 0 class(s) in January.</v>
+      </c>
     </row>
-    <row r="17" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>16</v>
       </c>
@@ -1621,14 +1875,14 @@
       <c r="G17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>47</v>
+      <c r="H17" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>47</v>
+      <c r="J17" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>47</v>
@@ -1675,8 +1929,8 @@
       <c r="Y17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Z17" s="7" t="s">
-        <v>47</v>
+      <c r="Z17" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="AA17" s="7" t="s">
         <v>47</v>
@@ -1705,8 +1959,24 @@
       <c r="AI17" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK17" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AL17" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM17" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AO17" t="str">
+        <f t="shared" si="3"/>
+        <v>Kadence McIntyre attended 26, missed 2, and was late to 3 class(s) in January.</v>
+      </c>
     </row>
-    <row r="18" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>18</v>
       </c>
@@ -1740,11 +2010,11 @@
       <c r="M18" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N18" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>47</v>
+      <c r="N18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>47</v>
@@ -1806,8 +2076,24 @@
       <c r="AI18" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK18" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AL18" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM18" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AO18" t="str">
+        <f t="shared" si="3"/>
+        <v>Eliseo Carrillo attended 28, missed 2, and was late to 1 class(s) in January.</v>
+      </c>
     </row>
-    <row r="19" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
@@ -1817,8 +2103,8 @@
       <c r="E19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>47</v>
+      <c r="F19" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>47</v>
@@ -1874,8 +2160,8 @@
       <c r="X19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Y19" s="7" t="s">
-        <v>47</v>
+      <c r="Y19" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="Z19" s="7" t="s">
         <v>47</v>
@@ -1886,8 +2172,8 @@
       <c r="AB19" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AC19" s="7" t="s">
-        <v>47</v>
+      <c r="AC19" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="AD19" s="7" t="s">
         <v>47</v>
@@ -1907,8 +2193,24 @@
       <c r="AI19" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK19" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AL19" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AM19" s="10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AO19" t="str">
+        <f t="shared" si="3"/>
+        <v>Kaylani Dudley attended 22, missed 4, and was late to 5 class(s) in January.</v>
+      </c>
     </row>
-    <row r="20" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B20" s="4" t="s">
         <v>22</v>
       </c>
@@ -1921,8 +2223,8 @@
       <c r="F20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="7" t="s">
-        <v>47</v>
+      <c r="G20" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>47</v>
@@ -1948,8 +2250,8 @@
       <c r="O20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
+      <c r="P20" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>47</v>
@@ -1999,8 +2301,8 @@
       <c r="AF20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AG20" s="7" t="s">
-        <v>47</v>
+      <c r="AG20" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="AH20" s="7" t="s">
         <v>47</v>
@@ -2008,8 +2310,24 @@
       <c r="AI20" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK20" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AL20" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM20" s="10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AO20" t="str">
+        <f t="shared" si="3"/>
+        <v>Colter Santiago attended 28, missed 2, and was late to 1 class(s) in January.</v>
+      </c>
     </row>
-    <row r="21" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
@@ -2040,8 +2358,8 @@
       <c r="L21" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M21" s="7" t="s">
-        <v>47</v>
+      <c r="M21" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="N21" s="7" t="s">
         <v>47</v>
@@ -2109,8 +2427,24 @@
       <c r="AI21" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK21" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AL21" s="10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AM21" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO21" t="str">
+        <f t="shared" si="3"/>
+        <v>Nyla Lopez attended 27, missed 4, and was late to 0 class(s) in January.</v>
+      </c>
     </row>
-    <row r="22" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
         <v>26</v>
       </c>
@@ -2132,8 +2466,8 @@
       <c r="I22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J22" s="7" t="s">
-        <v>47</v>
+      <c r="J22" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="K22" s="7" t="s">
         <v>47</v>
@@ -2156,8 +2490,8 @@
       <c r="Q22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="R22" s="7" t="s">
-        <v>47</v>
+      <c r="R22" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="S22" s="7" t="s">
         <v>47</v>
@@ -2168,11 +2502,11 @@
       <c r="U22" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="V22" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>47</v>
+      <c r="V22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="W22" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="X22" s="7" t="s">
         <v>47</v>
@@ -2210,8 +2544,24 @@
       <c r="AI22" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK22" s="10">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AL22" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AM22" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AO22" t="str">
+        <f t="shared" si="3"/>
+        <v>Michael Finley attended 26, missed 3, and was late to 2 class(s) in January.</v>
+      </c>
     </row>
-    <row r="23" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>28</v>
       </c>
@@ -2311,16 +2661,32 @@
       <c r="AI23" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK23" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AL23" s="10">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AM23" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO23" t="str">
+        <f t="shared" si="3"/>
+        <v>Jovie Quintero attended 28, missed 3, and was late to 0 class(s) in January.</v>
+      </c>
     </row>
-    <row r="24" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B24" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>47</v>
+      <c r="E24" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>47</v>
@@ -2394,14 +2760,14 @@
       <c r="AC24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AD24" s="7" t="s">
-        <v>47</v>
+      <c r="AD24" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="AE24" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AF24" s="7" t="s">
-        <v>47</v>
+      <c r="AF24" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="AG24" s="7" t="s">
         <v>47</v>
@@ -2412,8 +2778,24 @@
       <c r="AI24" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK24" s="10">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AL24" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM24" s="10">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AO24" t="str">
+        <f t="shared" si="3"/>
+        <v>Thatcher Trevino attended 27, missed 2, and was late to 2 class(s) in January.</v>
+      </c>
     </row>
-    <row r="25" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>32</v>
       </c>
@@ -2438,8 +2820,8 @@
       <c r="J25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K25" s="7" t="s">
-        <v>47</v>
+      <c r="K25" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>47</v>
@@ -2447,8 +2829,8 @@
       <c r="M25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="N25" s="7" t="s">
-        <v>47</v>
+      <c r="N25" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>47</v>
@@ -2507,14 +2889,30 @@
       <c r="AG25" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AH25" s="7" t="s">
-        <v>47</v>
+      <c r="AH25" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="AI25" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK25" s="10">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AL25" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM25" s="10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AO25" t="str">
+        <f t="shared" si="3"/>
+        <v>Naya Otto attended 25, missed 2, and was late to 4 class(s) in January.</v>
+      </c>
     </row>
-    <row r="26" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>36</v>
       </c>
@@ -2581,8 +2979,8 @@
       <c r="X26" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="Y26" s="7" t="s">
-        <v>47</v>
+      <c r="Y26" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="Z26" s="7" t="s">
         <v>47</v>
@@ -2614,8 +3012,24 @@
       <c r="AI26" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK26" s="10">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AL26" s="10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AM26" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" t="str">
+        <f t="shared" si="3"/>
+        <v>Joey Mitchell attended 30, missed 1, and was late to 0 class(s) in January.</v>
+      </c>
     </row>
-    <row r="27" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>38</v>
       </c>
@@ -2646,8 +3060,8 @@
       <c r="L27" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M27" s="7" t="s">
-        <v>47</v>
+      <c r="M27" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>47</v>
@@ -2715,8 +3129,24 @@
       <c r="AI27" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK27" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AL27" s="10">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM27" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO27" t="str">
+        <f t="shared" si="3"/>
+        <v>Matt Foley attended 29, missed 2, and was late to 0 class(s) in January.</v>
+      </c>
     </row>
-    <row r="28" spans="2:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
@@ -2816,8 +3246,826 @@
       <c r="AI28" s="7" t="s">
         <v>47</v>
       </c>
+      <c r="AK28" s="10">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="AL28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AM28" s="10">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="AO28" t="str">
+        <f t="shared" si="3"/>
+        <v>Ned Ryerson attended 28, missed 0, and was late to 3 class(s) in January.</v>
+      </c>
+    </row>
+    <row r="29" spans="2:41" ht="5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AK30" s="8">
+        <f>SUM(AK9:AK28)</f>
+        <v>539</v>
+      </c>
+      <c r="AL30" s="8">
+        <f t="shared" ref="AL30:AM30" si="4">SUM(AL9:AL28)</f>
+        <v>52</v>
+      </c>
+      <c r="AM30" s="8">
+        <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="C32" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="10">
+        <f>COUNTIF(E9:E28, "✓")</f>
+        <v>19</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" ref="F32:J32" si="5">COUNTIF(F9:F28, "✓")</f>
+        <v>18</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="5"/>
+        <v>17</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="5"/>
+        <v>18</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" ref="K32:W32" si="6">COUNTIF(K9:K28, "✓")</f>
+        <v>17</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="P32" s="10">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="Q32" s="10">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="R32" s="10">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="S32" s="10">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="T32" s="10">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="U32" s="10">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="V32" s="10">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="W32" s="10">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="X32" s="10">
+        <f t="shared" ref="X32:AE32" si="7">COUNTIF(X9:X28, "✓")</f>
+        <v>16</v>
+      </c>
+      <c r="Y32" s="10">
+        <f t="shared" si="7"/>
+        <v>17</v>
+      </c>
+      <c r="Z32" s="10">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AA32" s="10">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AB32" s="10">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AC32" s="10">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AD32" s="10">
+        <f t="shared" si="7"/>
+        <v>18</v>
+      </c>
+      <c r="AE32" s="10">
+        <f t="shared" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AF32" s="10">
+        <f>COUNTIF(AF9:AF28, "✓")</f>
+        <v>17</v>
+      </c>
+      <c r="AG32" s="10">
+        <f t="shared" ref="AG32:AI32" si="8">COUNTIF(AG9:AG28, "✓")</f>
+        <v>18</v>
+      </c>
+      <c r="AH32" s="10">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="AI32" s="10">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AK32" s="11"/>
+    </row>
+    <row r="33" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" s="10">
+        <f>COUNTIF(E9:E28, "✕")</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" ref="F33:J33" si="9">COUNTIF(F9:F28, "✕")</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" ref="K33:W33" si="10">COUNTIF(K9:K28, "✕")</f>
+        <v>2</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="P33" s="10">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="Q33" s="10">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="R33" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="T33" s="10">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="U33" s="10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="V33" s="10">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="W33" s="10">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="X33" s="10">
+        <f t="shared" ref="X33:AE33" si="11">COUNTIF(X9:X28, "✕")</f>
+        <v>3</v>
+      </c>
+      <c r="Y33" s="10">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="Z33" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA33" s="10">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AB33" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC33" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD33" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE33" s="10">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AF33" s="10">
+        <f>COUNTIF(AF9:AF28, "✕")</f>
+        <v>2</v>
+      </c>
+      <c r="AG33" s="10">
+        <f t="shared" ref="AG33:AI33" si="12">COUNTIF(AG9:AG28, "✕")</f>
+        <v>1</v>
+      </c>
+      <c r="AH33" s="10">
+        <f t="shared" si="12"/>
+        <v>3</v>
+      </c>
+      <c r="AI33" s="10">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AK33" s="11"/>
+    </row>
+    <row r="34" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E34" s="10">
+        <f>COUNTIF(E9:E28, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" ref="F34:J34" si="13">COUNTIF(F9:F28, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" ref="K34:W34" si="14">COUNTIF(K9:K28, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="P34" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="R34" s="10">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="S34" s="10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="T34" s="10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="U34" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
+        <f t="shared" si="14"/>
+        <v>2</v>
+      </c>
+      <c r="W34" s="10">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="X34" s="10">
+        <f t="shared" ref="X34:AE34" si="15">COUNTIF(X9:X28, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="Y34" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z34" s="10">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="AA34" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AC34" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AD34" s="10">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="AE34" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="10">
+        <f>COUNTIF(AF9:AF28, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="AG34" s="10">
+        <f t="shared" ref="AG34:AI34" si="16">COUNTIF(AG9:AG28, "T")</f>
+        <v>1</v>
+      </c>
+      <c r="AH34" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AI34" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AK34" s="11"/>
+    </row>
+    <row r="36" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="12">
+        <f>E32/20</f>
+        <v>0.95</v>
+      </c>
+      <c r="F36" s="12">
+        <f t="shared" ref="F36:AI36" si="17">F32/20</f>
+        <v>0.9</v>
+      </c>
+      <c r="G36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="H36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="I36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="J36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="K36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="L36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="M36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="N36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="O36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="P36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="R36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="S36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="T36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="U36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="V36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.75</v>
+      </c>
+      <c r="W36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="X36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="Z36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="AA36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="AB36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.95</v>
+      </c>
+      <c r="AC36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.95</v>
+      </c>
+      <c r="AD36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="AE36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.95</v>
+      </c>
+      <c r="AF36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="AG36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="AH36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+      <c r="AI36" s="12">
+        <f t="shared" si="17"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" ref="E37:AI37" si="18">E33/20</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="G37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="H37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="I37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="J37" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="L37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="M37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="N37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="O37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="P37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="R37" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="T37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="U37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="V37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="W37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="X37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="Y37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z37" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="AB37" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC37" s="12">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="AE37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="AF37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="AG37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="AH37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="AI37" s="12">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="38" spans="3:37" x14ac:dyDescent="0.2">
+      <c r="C38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" ref="E38:AI38" si="19">E34/20</f>
+        <v>0.05</v>
+      </c>
+      <c r="F38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="G38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="I38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="J38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="L38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="M38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="O38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="P38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="R38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="S38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="T38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="U38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="W38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="X38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="Y38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="AE38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="AG38" s="12">
+        <f t="shared" si="19"/>
+        <v>0.05</v>
+      </c>
+      <c r="AH38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AI38" s="12">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="E36:AI36">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThanOrEqual">
+      <formula>0.9</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37:AI37">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="greaterThanOrEqual">
+      <formula>0.15</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>